--- a/natmiOut/OldD4/LR-pairs_lrc2p/Areg-Erbb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Areg-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7433157144117</v>
+        <v>0.223433</v>
       </c>
       <c r="H2">
-        <v>0.7433157144117</v>
+        <v>0.670299</v>
       </c>
       <c r="I2">
-        <v>0.3529049126769032</v>
+        <v>0.0706233279219958</v>
       </c>
       <c r="J2">
-        <v>0.3529049126769032</v>
+        <v>0.0800818668959252</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.155187815763959</v>
+        <v>0.1640393333333333</v>
       </c>
       <c r="N2">
-        <v>0.155187815763959</v>
+        <v>0.4921179999999999</v>
       </c>
       <c r="O2">
-        <v>0.02255027973165014</v>
+        <v>0.02017083634918183</v>
       </c>
       <c r="P2">
-        <v>0.02255027973165014</v>
+        <v>0.02777954494355415</v>
       </c>
       <c r="Q2">
-        <v>0.1153535421425785</v>
+        <v>0.03665180036466666</v>
       </c>
       <c r="R2">
-        <v>0.1153535421425785</v>
+        <v>0.3298662032819999</v>
       </c>
       <c r="S2">
-        <v>0.007958104499537731</v>
+        <v>0.001424531589949181</v>
       </c>
       <c r="T2">
-        <v>0.007958104499537731</v>
+        <v>0.002224637820599075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -596,49 +599,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7433157144117</v>
+        <v>0.223433</v>
       </c>
       <c r="H3">
-        <v>0.7433157144117</v>
+        <v>0.670299</v>
       </c>
       <c r="I3">
-        <v>0.3529049126769032</v>
+        <v>0.0706233279219958</v>
       </c>
       <c r="J3">
-        <v>0.3529049126769032</v>
+        <v>0.0800818668959252</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.478789175011558</v>
+        <v>0.1512566666666667</v>
       </c>
       <c r="N3">
-        <v>0.478789175011558</v>
+        <v>0.45377</v>
       </c>
       <c r="O3">
-        <v>0.06957266442501277</v>
+        <v>0.01859903602422232</v>
       </c>
       <c r="P3">
-        <v>0.06957266442501277</v>
+        <v>0.02561484056473563</v>
       </c>
       <c r="Q3">
-        <v>0.3558915176763047</v>
+        <v>0.03379573080333333</v>
       </c>
       <c r="R3">
-        <v>0.3558915176763047</v>
+        <v>0.30416157723</v>
       </c>
       <c r="S3">
-        <v>0.02455253506360862</v>
+        <v>0.001313525820171666</v>
       </c>
       <c r="T3">
-        <v>0.02455253506360862</v>
+        <v>0.002051284252665504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7433157144117</v>
+        <v>0.223433</v>
       </c>
       <c r="H4">
-        <v>0.7433157144117</v>
+        <v>0.670299</v>
       </c>
       <c r="I4">
-        <v>0.3529049126769032</v>
+        <v>0.0706233279219958</v>
       </c>
       <c r="J4">
-        <v>0.3529049126769032</v>
+        <v>0.0800818668959252</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.24788068951513</v>
+        <v>0.524817</v>
       </c>
       <c r="N4">
-        <v>6.24788068951513</v>
+        <v>1.574451</v>
       </c>
       <c r="O4">
-        <v>0.907877055843337</v>
+        <v>0.06453328970044923</v>
       </c>
       <c r="P4">
-        <v>0.907877055843337</v>
+        <v>0.08887610759192668</v>
       </c>
       <c r="Q4">
-        <v>4.644147898286003</v>
+        <v>0.117261436761</v>
       </c>
       <c r="R4">
-        <v>4.644147898286003</v>
+        <v>1.055352930849</v>
       </c>
       <c r="S4">
-        <v>0.3203942731137568</v>
+        <v>0.00455755568039998</v>
       </c>
       <c r="T4">
-        <v>0.3203942731137568</v>
+        <v>0.007117364618404599</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.05551509014006</v>
+        <v>0.223433</v>
       </c>
       <c r="H5">
-        <v>1.05551509014006</v>
+        <v>0.670299</v>
       </c>
       <c r="I5">
-        <v>0.5011281928969379</v>
+        <v>0.0706233279219958</v>
       </c>
       <c r="J5">
-        <v>0.5011281928969379</v>
+        <v>0.0800818668959252</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.155187815763959</v>
+        <v>0.6100073333333333</v>
       </c>
       <c r="N5">
-        <v>0.155187815763959</v>
+        <v>1.830022</v>
       </c>
       <c r="O5">
-        <v>0.02255027973165014</v>
+        <v>0.07500858387094646</v>
       </c>
       <c r="P5">
-        <v>0.02255027973165014</v>
+        <v>0.1033028224870719</v>
       </c>
       <c r="Q5">
-        <v>0.1638030813447342</v>
+        <v>0.1362957685086667</v>
       </c>
       <c r="R5">
-        <v>0.1638030813447342</v>
+        <v>1.226661916578</v>
       </c>
       <c r="S5">
-        <v>0.01130058093124228</v>
+        <v>0.005297355815682377</v>
       </c>
       <c r="T5">
-        <v>0.01130058093124228</v>
+        <v>0.008272682880383082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.05551509014006</v>
+        <v>0.223433</v>
       </c>
       <c r="H6">
-        <v>1.05551509014006</v>
+        <v>0.670299</v>
       </c>
       <c r="I6">
-        <v>0.5011281928969379</v>
+        <v>0.0706233279219958</v>
       </c>
       <c r="J6">
-        <v>0.5011281928969379</v>
+        <v>0.0800818668959252</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.478789175011558</v>
+        <v>6.68238</v>
       </c>
       <c r="N6">
-        <v>0.478789175011558</v>
+        <v>13.36476</v>
       </c>
       <c r="O6">
-        <v>0.06957266442501277</v>
+        <v>0.8216882540552003</v>
       </c>
       <c r="P6">
-        <v>0.06957266442501277</v>
+        <v>0.7544266844127117</v>
       </c>
       <c r="Q6">
-        <v>0.5053691992204096</v>
+        <v>1.49306421054</v>
       </c>
       <c r="R6">
-        <v>0.5053691992204096</v>
+        <v>8.95838526324</v>
       </c>
       <c r="S6">
-        <v>0.03486482359833173</v>
+        <v>0.05803035901579261</v>
       </c>
       <c r="T6">
-        <v>0.03486482359833173</v>
+        <v>0.06041589732387294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,247 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.05551509014006</v>
+        <v>0.7489203333333334</v>
       </c>
       <c r="H7">
-        <v>1.05551509014006</v>
+        <v>2.246761</v>
       </c>
       <c r="I7">
-        <v>0.5011281928969379</v>
+        <v>0.2367208348294585</v>
       </c>
       <c r="J7">
-        <v>0.5011281928969379</v>
+        <v>0.2684247109856285</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.24788068951513</v>
+        <v>0.1640393333333333</v>
       </c>
       <c r="N7">
-        <v>6.24788068951513</v>
+        <v>0.4921179999999999</v>
       </c>
       <c r="O7">
-        <v>0.907877055843337</v>
+        <v>0.02017083634918183</v>
       </c>
       <c r="P7">
-        <v>0.907877055843337</v>
+        <v>0.02777954494355415</v>
       </c>
       <c r="Q7">
-        <v>6.594732349177903</v>
+        <v>0.1228523921997778</v>
       </c>
       <c r="R7">
-        <v>6.594732349177903</v>
+        <v>1.105671529798</v>
       </c>
       <c r="S7">
-        <v>0.4549627883673638</v>
+        <v>0.00477485721978671</v>
       </c>
       <c r="T7">
-        <v>0.4549627883673638</v>
+        <v>0.007456716322785802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.307446800861547</v>
+        <v>0.7489203333333334</v>
       </c>
       <c r="H8">
-        <v>0.307446800861547</v>
+        <v>2.246761</v>
       </c>
       <c r="I8">
-        <v>0.1459668944261589</v>
+        <v>0.2367208348294585</v>
       </c>
       <c r="J8">
-        <v>0.1459668944261589</v>
+        <v>0.2684247109856285</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.155187815763959</v>
+        <v>0.1512566666666667</v>
       </c>
       <c r="N8">
-        <v>0.155187815763959</v>
+        <v>0.45377</v>
       </c>
       <c r="O8">
-        <v>0.02255027973165014</v>
+        <v>0.01859903602422232</v>
       </c>
       <c r="P8">
-        <v>0.02255027973165014</v>
+        <v>0.02561484056473563</v>
       </c>
       <c r="Q8">
-        <v>0.04771199748932035</v>
+        <v>0.1132791932188889</v>
       </c>
       <c r="R8">
-        <v>0.04771199748932035</v>
+        <v>1.01951273897</v>
       </c>
       <c r="S8">
-        <v>0.003291594300870127</v>
+        <v>0.004402779334677081</v>
       </c>
       <c r="T8">
-        <v>0.003291594300870127</v>
+        <v>0.006875656175532116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.307446800861547</v>
+        <v>0.7489203333333334</v>
       </c>
       <c r="H9">
-        <v>0.307446800861547</v>
+        <v>2.246761</v>
       </c>
       <c r="I9">
-        <v>0.1459668944261589</v>
+        <v>0.2367208348294585</v>
       </c>
       <c r="J9">
-        <v>0.1459668944261589</v>
+        <v>0.2684247109856285</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.478789175011558</v>
+        <v>0.524817</v>
       </c>
       <c r="N9">
-        <v>0.478789175011558</v>
+        <v>1.574451</v>
       </c>
       <c r="O9">
-        <v>0.06957266442501277</v>
+        <v>0.06453328970044923</v>
       </c>
       <c r="P9">
-        <v>0.06957266442501277</v>
+        <v>0.08887610759192668</v>
       </c>
       <c r="Q9">
-        <v>0.1472022001444429</v>
+        <v>0.393046122579</v>
       </c>
       <c r="R9">
-        <v>0.1472022001444429</v>
+        <v>3.537415103211</v>
       </c>
       <c r="S9">
-        <v>0.01015530576307242</v>
+        <v>0.01527637421218164</v>
       </c>
       <c r="T9">
-        <v>0.01015530576307242</v>
+        <v>0.02385654349389055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.307446800861547</v>
+        <v>0.7489203333333334</v>
       </c>
       <c r="H10">
-        <v>0.307446800861547</v>
+        <v>2.246761</v>
       </c>
       <c r="I10">
-        <v>0.1459668944261589</v>
+        <v>0.2367208348294585</v>
       </c>
       <c r="J10">
-        <v>0.1459668944261589</v>
+        <v>0.2684247109856285</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>6.24788068951513</v>
+        <v>0.6100073333333333</v>
       </c>
       <c r="N10">
-        <v>6.24788068951513</v>
+        <v>1.830022</v>
       </c>
       <c r="O10">
-        <v>0.907877055843337</v>
+        <v>0.07500858387094646</v>
       </c>
       <c r="P10">
-        <v>0.907877055843337</v>
+        <v>0.1033028224870719</v>
       </c>
       <c r="Q10">
-        <v>1.920890930156063</v>
+        <v>0.4568468954157778</v>
       </c>
       <c r="R10">
-        <v>1.920890930156063</v>
+        <v>4.111622058742</v>
       </c>
       <c r="S10">
-        <v>0.1325199943622164</v>
+        <v>0.0177560945933059</v>
       </c>
       <c r="T10">
-        <v>0.1325199943622164</v>
+        <v>0.02772903027009197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7489203333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.246761</v>
+      </c>
+      <c r="I11">
+        <v>0.2367208348294585</v>
+      </c>
+      <c r="J11">
+        <v>0.2684247109856285</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.68238</v>
+      </c>
+      <c r="N11">
+        <v>13.36476</v>
+      </c>
+      <c r="O11">
+        <v>0.8216882540552003</v>
+      </c>
+      <c r="P11">
+        <v>0.7544266844127117</v>
+      </c>
+      <c r="Q11">
+        <v>5.004570257060001</v>
+      </c>
+      <c r="R11">
+        <v>30.02742154236</v>
+      </c>
+      <c r="S11">
+        <v>0.1945107294695072</v>
+      </c>
+      <c r="T11">
+        <v>0.2025067647233281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.070362666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.211088</v>
+      </c>
+      <c r="I12">
+        <v>0.3383232271126552</v>
+      </c>
+      <c r="J12">
+        <v>0.3836346493238132</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1640393333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.4921179999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.02017083634918183</v>
+      </c>
+      <c r="P12">
+        <v>0.02777954494355415</v>
+      </c>
+      <c r="Q12">
+        <v>0.1755815782648889</v>
+      </c>
+      <c r="R12">
+        <v>1.580234204384</v>
+      </c>
+      <c r="S12">
+        <v>0.006824262447216445</v>
+      </c>
+      <c r="T12">
+        <v>0.0106571959827955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.070362666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.211088</v>
+      </c>
+      <c r="I13">
+        <v>0.3383232271126552</v>
+      </c>
+      <c r="J13">
+        <v>0.3836346493238132</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1512566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.45377</v>
+      </c>
+      <c r="O13">
+        <v>0.01859903602422232</v>
+      </c>
+      <c r="P13">
+        <v>0.02561484056473563</v>
+      </c>
+      <c r="Q13">
+        <v>0.1618994890844445</v>
+      </c>
+      <c r="R13">
+        <v>1.45709540176</v>
+      </c>
+      <c r="S13">
+        <v>0.006292485888899423</v>
+      </c>
+      <c r="T13">
+        <v>0.009826740377537738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.070362666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.211088</v>
+      </c>
+      <c r="I14">
+        <v>0.3383232271126552</v>
+      </c>
+      <c r="J14">
+        <v>0.3836346493238132</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.524817</v>
+      </c>
+      <c r="N14">
+        <v>1.574451</v>
+      </c>
+      <c r="O14">
+        <v>0.06453328970044923</v>
+      </c>
+      <c r="P14">
+        <v>0.08887610759192668</v>
+      </c>
+      <c r="Q14">
+        <v>0.561744523632</v>
+      </c>
+      <c r="R14">
+        <v>5.055700712688</v>
+      </c>
+      <c r="S14">
+        <v>0.02183311082765186</v>
+      </c>
+      <c r="T14">
+        <v>0.03409595436929429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.070362666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.211088</v>
+      </c>
+      <c r="I15">
+        <v>0.3383232271126552</v>
+      </c>
+      <c r="J15">
+        <v>0.3836346493238132</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6100073333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.830022</v>
+      </c>
+      <c r="O15">
+        <v>0.07500858387094646</v>
+      </c>
+      <c r="P15">
+        <v>0.1033028224870719</v>
+      </c>
+      <c r="Q15">
+        <v>0.652929075992889</v>
+      </c>
+      <c r="R15">
+        <v>5.876361683936</v>
+      </c>
+      <c r="S15">
+        <v>0.02537714615636887</v>
+      </c>
+      <c r="T15">
+        <v>0.03963054207898796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.070362666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.211088</v>
+      </c>
+      <c r="I16">
+        <v>0.3383232271126552</v>
+      </c>
+      <c r="J16">
+        <v>0.3836346493238132</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.68238</v>
+      </c>
+      <c r="N16">
+        <v>13.36476</v>
+      </c>
+      <c r="O16">
+        <v>0.8216882540552003</v>
+      </c>
+      <c r="P16">
+        <v>0.7544266844127117</v>
+      </c>
+      <c r="Q16">
+        <v>7.152570076480001</v>
+      </c>
+      <c r="R16">
+        <v>42.91542045888001</v>
+      </c>
+      <c r="S16">
+        <v>0.2779962217925186</v>
+      </c>
+      <c r="T16">
+        <v>0.2894242165151977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.121012</v>
+      </c>
+      <c r="H17">
+        <v>2.242024</v>
+      </c>
+      <c r="I17">
+        <v>0.3543326101358903</v>
+      </c>
+      <c r="J17">
+        <v>0.2678587727946332</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1640393333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.4921179999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.02017083634918183</v>
+      </c>
+      <c r="P17">
+        <v>0.02777954494355415</v>
+      </c>
+      <c r="Q17">
+        <v>0.1838900611386667</v>
+      </c>
+      <c r="R17">
+        <v>1.103340366832</v>
+      </c>
+      <c r="S17">
+        <v>0.007147185092229489</v>
+      </c>
+      <c r="T17">
+        <v>0.007440994817373772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.121012</v>
+      </c>
+      <c r="H18">
+        <v>2.242024</v>
+      </c>
+      <c r="I18">
+        <v>0.3543326101358903</v>
+      </c>
+      <c r="J18">
+        <v>0.2678587727946332</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1512566666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.45377</v>
+      </c>
+      <c r="O18">
+        <v>0.01859903602422232</v>
+      </c>
+      <c r="P18">
+        <v>0.02561484056473563</v>
+      </c>
+      <c r="Q18">
+        <v>0.1695605384133334</v>
+      </c>
+      <c r="R18">
+        <v>1.01736323048</v>
+      </c>
+      <c r="S18">
+        <v>0.006590244980474146</v>
+      </c>
+      <c r="T18">
+        <v>0.006861159759000274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.121012</v>
+      </c>
+      <c r="H19">
+        <v>2.242024</v>
+      </c>
+      <c r="I19">
+        <v>0.3543326101358903</v>
+      </c>
+      <c r="J19">
+        <v>0.2678587727946332</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.524817</v>
+      </c>
+      <c r="N19">
+        <v>1.574451</v>
+      </c>
+      <c r="O19">
+        <v>0.06453328970044923</v>
+      </c>
+      <c r="P19">
+        <v>0.08887610759192668</v>
+      </c>
+      <c r="Q19">
+        <v>0.5883261548040001</v>
+      </c>
+      <c r="R19">
+        <v>3.529956928824</v>
+      </c>
+      <c r="S19">
+        <v>0.02286624898021574</v>
+      </c>
+      <c r="T19">
+        <v>0.02380624511033726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.121012</v>
+      </c>
+      <c r="H20">
+        <v>2.242024</v>
+      </c>
+      <c r="I20">
+        <v>0.3543326101358903</v>
+      </c>
+      <c r="J20">
+        <v>0.2678587727946332</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.6100073333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.830022</v>
+      </c>
+      <c r="O20">
+        <v>0.07500858387094646</v>
+      </c>
+      <c r="P20">
+        <v>0.1033028224870719</v>
+      </c>
+      <c r="Q20">
+        <v>0.6838255407546667</v>
+      </c>
+      <c r="R20">
+        <v>4.102953244528001</v>
+      </c>
+      <c r="S20">
+        <v>0.0265779873055893</v>
+      </c>
+      <c r="T20">
+        <v>0.02767056725760892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.121012</v>
+      </c>
+      <c r="H21">
+        <v>2.242024</v>
+      </c>
+      <c r="I21">
+        <v>0.3543326101358903</v>
+      </c>
+      <c r="J21">
+        <v>0.2678587727946332</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.68238</v>
+      </c>
+      <c r="N21">
+        <v>13.36476</v>
+      </c>
+      <c r="O21">
+        <v>0.8216882540552003</v>
+      </c>
+      <c r="P21">
+        <v>0.7544266844127117</v>
+      </c>
+      <c r="Q21">
+        <v>7.491028168560001</v>
+      </c>
+      <c r="R21">
+        <v>29.96411267424</v>
+      </c>
+      <c r="S21">
+        <v>0.2911509437773817</v>
+      </c>
+      <c r="T21">
+        <v>0.2020798058503129</v>
       </c>
     </row>
   </sheetData>
